--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9630" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="ousi_staff表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="64">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,10 @@
   </si>
   <si>
     <t>UID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F11"/>
     </sheetView>
   </sheetViews>
@@ -815,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -852,7 +856,7 @@
         <v>15603736666</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>54</v>
